--- a/Project Rubric.xlsx
+++ b/Project Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnorri\Qsync\Graphics I &amp; II Shared Staff Folder\Project &amp; Portfolio 4\DEV4 Day V\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fullsailedu-my.sharepoint.com/personal/agitomer_student_fullsail_edu/Documents/School/Dev 4/LevelRenderMain/Gitomer.Amara.Dev4.Level_Render/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4AFB732-1C58-4D86-A187-E8EAE6E2F6B6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView minimized="1" xWindow="9990" yWindow="0" windowWidth="18675" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1373,6 +1373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,7 +1518,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
@@ -1538,6 +1544,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1858,19 +1865,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.73046875" customWidth="1"/>
+    <col min="1" max="1" width="74.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1891,8 +1898,9 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1903,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -1925,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1936,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2004,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
@@ -2026,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2081,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -2114,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2136,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
@@ -2147,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2170,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2181,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
@@ -2192,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2203,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>40</v>
       </c>
@@ -2225,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>16</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
@@ -2247,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
@@ -2258,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -2269,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
@@ -2280,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>19</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>36</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>38</v>
       </c>
@@ -2313,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>44</v>
       </c>
@@ -2324,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -2380,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>32</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>23</v>
       </c>

--- a/Project Rubric.xlsx
+++ b/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fullsailedu-my.sharepoint.com/personal/agitomer_student_fullsail_edu/Documents/School/Dev 4/LevelRenderMain/Gitomer.Amara.Dev4.Level_Render/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4AFB732-1C58-4D86-A187-E8EAE6E2F6B6}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBCD7904-8E0C-4052-8000-D3D292805941}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="9990" yWindow="0" windowWidth="18675" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -1338,7 +1338,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,7 +1378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1524,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
@@ -1545,6 +1551,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1868,7 +1875,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,6 +1917,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1921,6 +1929,7 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1932,6 +1941,7 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1943,6 +1953,7 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1954,6 +1965,7 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1965,6 +1977,7 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1976,6 +1989,7 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1987,6 +2001,7 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1998,6 +2013,7 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2044,6 +2060,7 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2055,8 +2072,9 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2078,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2111,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>12</v>
       </c>
@@ -2133,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
@@ -2200,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2211,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -2221,8 +2239,9 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>40</v>
       </c>
@@ -2233,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>16</v>
       </c>
@@ -2244,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>43</v>
       </c>
@@ -2277,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
@@ -2288,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>36</v>
       </c>
@@ -2310,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>38</v>
       </c>
@@ -2321,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>44</v>
       </c>
@@ -2332,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
@@ -2343,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -2355,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2366,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
@@ -2376,8 +2395,9 @@
       <c r="C45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -2387,8 +2407,9 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>32</v>
       </c>
@@ -2399,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>4</v>
       </c>

--- a/Project Rubric.xlsx
+++ b/Project Rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fullsailedu-my.sharepoint.com/personal/agitomer_student_fullsail_edu/Documents/School/Dev 4/LevelRenderMain/Gitomer.Amara.Dev4.Level_Render/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBCD7904-8E0C-4052-8000-D3D292805941}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{599E4609-DC32-4BD9-937F-D6A52054B571}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9990" yWindow="0" windowWidth="18675" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView minimized="1" xWindow="300" yWindow="0" windowWidth="17010" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1875,7 +1875,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1905,7 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1917,7 +1917,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1929,7 +1929,7 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1941,7 +1941,7 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">

--- a/Project Rubric.xlsx
+++ b/Project Rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fullsailedu-my.sharepoint.com/personal/agitomer_student_fullsail_edu/Documents/School/Dev 4/LevelRenderMain/Gitomer.Amara.Dev4.Level_Render/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{599E4609-DC32-4BD9-937F-D6A52054B571}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1813B198-5DD1-4165-8F0F-285B6F5A3C29}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="300" yWindow="0" windowWidth="17010" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="17925" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1373,12 +1373,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,7 +1545,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1874,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1899,7 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1917,7 +1911,7 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1929,7 +1923,7 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1941,7 +1935,7 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1965,7 +1959,7 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1977,7 +1971,7 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1989,7 +1983,7 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2001,7 +1995,7 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2013,7 +2007,7 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2027,6 +2021,7 @@
         <f>SUM(C2:C11)</f>
         <v>0</v>
       </c>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -2038,6 +2033,7 @@
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2049,6 +2045,7 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2060,7 +2057,7 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2072,7 +2069,7 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -2084,6 +2081,7 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2095,6 +2093,7 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -2106,6 +2105,7 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -2117,6 +2117,7 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -2128,6 +2129,7 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -2139,6 +2141,7 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -2150,6 +2153,7 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -2161,6 +2165,7 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
@@ -2172,6 +2177,7 @@
       <c r="C25" s="7">
         <v>0</v>
       </c>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -2184,6 +2190,7 @@
         <f>MIN(SUM(C14:C25),33%)</f>
         <v>0</v>
       </c>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -2195,6 +2202,7 @@
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -2206,6 +2214,7 @@
       <c r="C28" s="3">
         <v>0</v>
       </c>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -2217,6 +2226,7 @@
       <c r="C29" s="3">
         <v>0</v>
       </c>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
@@ -2228,6 +2238,7 @@
       <c r="C30" s="3">
         <v>0</v>
       </c>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -2239,7 +2250,7 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2251,6 +2262,7 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
@@ -2262,6 +2274,7 @@
       <c r="C33" s="3">
         <v>0</v>
       </c>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
@@ -2273,6 +2286,7 @@
       <c r="C34" s="3">
         <v>0</v>
       </c>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
@@ -2284,6 +2298,7 @@
       <c r="C35" s="3">
         <v>0</v>
       </c>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
@@ -2295,6 +2310,7 @@
       <c r="C36" s="3">
         <v>0</v>
       </c>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
@@ -2306,6 +2322,7 @@
       <c r="C37" s="3">
         <v>0</v>
       </c>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
@@ -2317,6 +2334,7 @@
       <c r="C38" s="3">
         <v>0</v>
       </c>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
@@ -2328,6 +2346,7 @@
       <c r="C39" s="3">
         <v>0</v>
       </c>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
@@ -2339,6 +2358,7 @@
       <c r="C40" s="3">
         <v>0</v>
       </c>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
@@ -2350,6 +2370,7 @@
       <c r="C41" s="3">
         <v>0</v>
       </c>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
@@ -2361,6 +2382,7 @@
       <c r="C42" s="7">
         <v>0</v>
       </c>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -2373,6 +2395,7 @@
         <f>MIN(SUM(C28:C42),13%)</f>
         <v>0</v>
       </c>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -2384,6 +2407,7 @@
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -2395,7 +2419,7 @@
       <c r="C45" s="3">
         <v>0</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">

--- a/Project Rubric.xlsx
+++ b/Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fullsailedu-my.sharepoint.com/personal/agitomer_student_fullsail_edu/Documents/School/Dev 4/LevelRenderMain/Gitomer.Amara.Dev4.Level_Render/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1813B198-5DD1-4165-8F0F-285B6F5A3C29}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7568AF-2151-4FCC-8A93-B0F1396137B4}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="0" windowWidth="17925" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1959,7 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1971,7 +1971,7 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1983,7 +1983,7 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1995,7 +1995,7 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2007,7 +2007,7 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2431,7 +2431,7 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-      <c r="D46" s="20"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">

--- a/Project Rubric.xlsx
+++ b/Project Rubric.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fullsailedu-my.sharepoint.com/personal/agitomer_student_fullsail_edu/Documents/School/Dev 4/LevelRenderMain/Gitomer.Amara.Dev4.Level_Render/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgit\OneDrive - Full Sail University\School\Dev 4\LevelRenderMain\Gitomer.Amara.Dev4.Level_Render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{ABA0C61D-DD52-4E75-B26B-2B92A57AA007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7568AF-2151-4FCC-8A93-B0F1396137B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A09AC-7CEC-4F09-8F20-8B1C772E048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="17925" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
+    <workbookView xWindow="10635" yWindow="0" windowWidth="17925" windowHeight="15600" xr2:uid="{2B9022D0-B5E6-432E-8A19-30BD25892E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>1. One or More Blender Game Levels to export from (.blend)</t>
   </si>
@@ -1260,6 +1260,9 @@
   </si>
   <si>
     <t>Support for Diffuse and/or Specular Textured Materials in your Level</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -1868,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A40538-A3BB-461B-BC01-A04BD38DD6FA}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,6 +1891,9 @@
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
